--- a/examples_sheets/template.xlsx
+++ b/examples_sheets/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D89E1A-91C1-4E63-8077-70E42379AA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59FF2EB-8D43-4436-B595-55DABE5738D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" xr2:uid="{FF0F59C4-A9DD-4BAB-8433-18F872FB21FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="3" xr2:uid="{FF0F59C4-A9DD-4BAB-8433-18F872FB21FE}"/>
   </bookViews>
   <sheets>
     <sheet name="district" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
     <t>District Cells</t>
   </si>
@@ -144,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -295,6 +295,12 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
@@ -640,7 +646,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -668,6 +674,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1052,21 +1061,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5FD661-2632-4480-B203-F02323474A53}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1076,7 +1086,7 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1086,9 +1096,6 @@
         <v>1</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1226,7 +1233,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1236,16 +1243,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1259,21 +1268,21 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1288,20 +1297,17 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G3" s="11"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1315,9 +1321,9 @@
       <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1822,10 +1828,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7625D324-BBE1-4F7C-90E0-D3A819617048}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1835,15 +1841,18 @@
     <col min="4" max="4" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1857,7 +1866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1869,7 +1878,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1881,7 +1890,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1889,31 +1898,31 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="8"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="8"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="8"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="8"/>
       <c r="C10" s="5"/>
@@ -1924,7 +1933,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1932,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54484E3E-C973-4989-9AC4-43AA9E0F41CE}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1947,18 +1956,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2030,8 +2042,8 @@
       <c r="H5" s="5"/>
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
@@ -2079,8 +2091,8 @@
       <c r="H9" s="5"/>
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -2131,7 +2143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3ACF89-2EB2-48B9-A884-A3492EA8DDFC}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -2142,16 +2154,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -2165,22 +2179,21 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="2"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2194,20 +2207,17 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="G3" s="11"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2221,9 +2231,9 @@
       <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
